--- a/data/trans_camb/P15_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,17</t>
+          <t>-38,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-28,7</t>
+          <t>-34,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,0</t>
+          <t>-20,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,94</t>
+          <t>-46,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,67</t>
+          <t>-28,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-29,89</t>
+          <t>-41,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 15,14</t>
+          <t>-2,56; 14,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,31; -12,46</t>
+          <t>-68,31; -19,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,6; -14,39</t>
+          <t>-54,19; -6,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,78</t>
+          <t>-9,54; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -3,07</t>
+          <t>-32,94; -10,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -12,41</t>
+          <t>-61,13; -32,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 9,32</t>
+          <t>-4,31; 5,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,62; -9,53</t>
+          <t>-47,11; -17,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -17,56</t>
+          <t>-54,33; -24,87</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-41,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,77%</t>
+          <t>-36,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>-47,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>-42,58%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 18,79</t>
+          <t>-2,69; 16,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -14,88</t>
+          <t>-71,35; -20,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,51; -17,01</t>
+          <t>-57,62; -7,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 10,26</t>
+          <t>-9,86; 1,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -3,66</t>
+          <t>-33,53; -10,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,63; -13,92</t>
+          <t>-61,99; -33,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,84</t>
+          <t>-4,4; 5,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -10,96</t>
+          <t>-49,48; -18,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,17; -19,91</t>
+          <t>-56,08; -25,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,34</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-35,88</t>
+          <t>-40,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,36</t>
+          <t>-17,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,84</t>
+          <t>-34,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,52</t>
+          <t>-15,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-36,64</t>
+          <t>-37,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 16,74</t>
+          <t>3,84; 23,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,21; -7,68</t>
+          <t>-24,82; -1,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,11; -26,25</t>
+          <t>-51,55; -26,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,3</t>
+          <t>3,06; 18,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,65; -14,35</t>
+          <t>-27,04; -9,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -28,94</t>
+          <t>-43,72; -23,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,8</t>
+          <t>6,62; 19,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -13,6</t>
+          <t>-23,37; -8,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -30,02</t>
+          <t>-45,22; -29,99</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-22,05%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,41%</t>
+          <t>-57,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,62%</t>
+          <t>-23,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,49%</t>
+          <t>-44,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-21,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,15%</t>
+          <t>-51,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 23,94</t>
+          <t>4,98; 37,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,64; -11,04</t>
+          <t>-33,3; -2,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,78; -36,95</t>
+          <t>-69,3; -40,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 17,09</t>
+          <t>3,75; 26,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,86; -18,46</t>
+          <t>-33,97; -12,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -36,81</t>
+          <t>-54,43; -32,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 17,01</t>
+          <t>8,63; 27,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,62; -18,29</t>
+          <t>-30,79; -12,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,76; -39,81</t>
+          <t>-59,17; -41,69</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,96</t>
+          <t>-28,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-42,3</t>
+          <t>-44,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,38</t>
+          <t>-23,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-38,17</t>
+          <t>-37,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,5</t>
+          <t>-25,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-40,08</t>
+          <t>-40,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 15,84</t>
+          <t>-3,47; 17,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-35,12; -15,6</t>
+          <t>-40,27; -15,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-51,3; -32,54</t>
+          <t>-55,92; -32,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 19,78</t>
+          <t>-0,59; 18,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,36; -12,46</t>
+          <t>-33,44; -11,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,73; -29,6</t>
+          <t>-47,43; -26,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 16,18</t>
+          <t>1,45; 15,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -16,65</t>
+          <t>-32,5; -16,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-45,8; -33,43</t>
+          <t>-48,27; -32,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-37,02%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,33%</t>
+          <t>-61,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,31%</t>
+          <t>-33,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-57,69%</t>
+          <t>-54,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,56%</t>
+          <t>-36,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-58,95%</t>
+          <t>-57,91%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 23,84</t>
+          <t>-4,38; 27,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,96; -23,62</t>
+          <t>-53,31; -23,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,01; -48,95</t>
+          <t>-72,91; -47,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 32,44</t>
+          <t>-0,64; 30,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; -19,59</t>
+          <t>-47,23; -19,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,39; -47,3</t>
+          <t>-65,83; -41,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 25,01</t>
+          <t>2,01; 25,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -25,62</t>
+          <t>-44,93; -24,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -51,4</t>
+          <t>-65,79; -48,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-20,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-36,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-20,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-36,12</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -15,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -14,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -28,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -16,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-40,22; -31,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 18,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -21,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -40,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,65; -19,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -37,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -21,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -41,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9,94</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-22,39</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-40,94</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-20,25</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-36,82</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9,23</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-21,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-38,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 16,44</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; -13,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-49,14; -29,97</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 14,17</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-26,29; -13,64</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-42,9; -29,81</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 13,91</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; -16,34</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; -32,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-30,12%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-55,08%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-26,64%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-48,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-28,29%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-51,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 23,33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,68; -18,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-64,01; -41,63</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 19,67</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; -18,79</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-54,94; -40,52</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 19,4</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-34,69; -22,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-56,87; -44,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
